--- a/lookup_pys/lighting_lookup.xlsx
+++ b/lookup_pys/lighting_lookup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\E_Plus_2030_py\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\E_Plus_2030_py\lookup_pys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7C0207-3E71-4340-BCA5-DEC899343148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3F3AC2-12BC-4501-BC1D-293B8D9AD121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24960" yWindow="2415" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="405" windowWidth="29040" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,43 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
-  <si>
-    <t>scenario</t>
-  </si>
-  <si>
-    <t>building_function</t>
-  </si>
-  <si>
-    <t>building_subtype</t>
-  </si>
-  <si>
-    <t>lights_wm2_min</t>
-  </si>
-  <si>
-    <t>lights_wm2_max</t>
-  </si>
-  <si>
-    <t>parasitic_wm2_min</t>
-  </si>
-  <si>
-    <t>parasitic_wm2_max</t>
-  </si>
-  <si>
-    <t>td_min</t>
-  </si>
-  <si>
-    <t>td_max</t>
-  </si>
-  <si>
-    <t>tn_min</t>
-  </si>
-  <si>
-    <t>tn_max</t>
-  </si>
-  <si>
-    <t>pre_calibration</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="73">
   <si>
     <t>Residential</t>
   </si>
@@ -85,6 +49,201 @@
   </si>
   <si>
     <t>Sport Function</t>
+  </si>
+  <si>
+    <t>Calibration Stage</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Sub-Type/Function</t>
+  </si>
+  <si>
+    <t>LIGHTS_WM2_range</t>
+  </si>
+  <si>
+    <t>PARASITIC_WM2_range</t>
+  </si>
+  <si>
+    <t>tD_range</t>
+  </si>
+  <si>
+    <t>tN_range</t>
+  </si>
+  <si>
+    <t>lights_fraction_radiant_range</t>
+  </si>
+  <si>
+    <t>lights_fraction_visible_range</t>
+  </si>
+  <si>
+    <t>lights_fraction_replaceable_range</t>
+  </si>
+  <si>
+    <t>equip_fraction_radiant_range</t>
+  </si>
+  <si>
+    <t>equip_fraction_lost_range</t>
+  </si>
+  <si>
+    <t>Pre-calibration</t>
+  </si>
+  <si>
+    <t>(0.0, 0.0)</t>
+  </si>
+  <si>
+    <t>(0, 0)</t>
+  </si>
+  <si>
+    <t>(0.7, 0.7)</t>
+  </si>
+  <si>
+    <t>(0.2, 0.2)</t>
+  </si>
+  <si>
+    <t>(1.0, 1.0)</t>
+  </si>
+  <si>
+    <t>Detached House</t>
+  </si>
+  <si>
+    <t>Two-and-a-half-story House</t>
+  </si>
+  <si>
+    <t>(16.0, 18.0)</t>
+  </si>
+  <si>
+    <t>(0.28, 0.30)</t>
+  </si>
+  <si>
+    <t>(300, 400)</t>
+  </si>
+  <si>
+    <t>(17.0, 19.0)</t>
+  </si>
+  <si>
+    <t>(0.28, 0.31)</t>
+  </si>
+  <si>
+    <t>(300, 1100)</t>
+  </si>
+  <si>
+    <t>(700, 900)</t>
+  </si>
+  <si>
+    <t>Cell Function</t>
+  </si>
+  <si>
+    <t>(900, 1100)</t>
+  </si>
+  <si>
+    <t>Retail Function</t>
+  </si>
+  <si>
+    <t>(29.0, 31.0)</t>
+  </si>
+  <si>
+    <t>(300, 500)</t>
+  </si>
+  <si>
+    <t>Industrial Function</t>
+  </si>
+  <si>
+    <t>Accommodation Function</t>
+  </si>
+  <si>
+    <t>Office Function</t>
+  </si>
+  <si>
+    <t>(15.0, 17.0)</t>
+  </si>
+  <si>
+    <t>(0.28, 0.29)</t>
+  </si>
+  <si>
+    <t>Education Function</t>
+  </si>
+  <si>
+    <t>(13.0, 16.0)</t>
+  </si>
+  <si>
+    <t>(200, 400)</t>
+  </si>
+  <si>
+    <t>Other Use Function</t>
+  </si>
+  <si>
+    <t>(15.0, 18.0)</t>
+  </si>
+  <si>
+    <t>(200, 500)</t>
+  </si>
+  <si>
+    <t>Post-calibration</t>
+  </si>
+  <si>
+    <t>(17.0, 17.0)</t>
+  </si>
+  <si>
+    <t>(0.285, 0.285)</t>
+  </si>
+  <si>
+    <t>(18.0, 18.0)</t>
+  </si>
+  <si>
+    <t>(0.29, 0.29)</t>
+  </si>
+  <si>
+    <t>(30.0, 30.0)</t>
+  </si>
+  <si>
+    <t>(16.0, 16.0)</t>
+  </si>
+  <si>
+    <t>(15.0, 15.0)</t>
+  </si>
+  <si>
+    <t>(2100, 2300)</t>
+  </si>
+  <si>
+    <t>(2100, 4200)</t>
+  </si>
+  <si>
+    <t>(3800, 4200)</t>
+  </si>
+  <si>
+    <t>(2600, 2800)</t>
+  </si>
+  <si>
+    <t>(1500, 1700)</t>
+  </si>
+  <si>
+    <t>(2000, 2500)</t>
+  </si>
+  <si>
+    <t>(2200, 2200)</t>
+  </si>
+  <si>
+    <t>(4000, 4000)</t>
+  </si>
+  <si>
+    <t>(1600, 1600)</t>
+  </si>
+  <si>
+    <t>(2700, 2700)</t>
+  </si>
+  <si>
+    <t>(300, 300)</t>
+  </si>
+  <si>
+    <t>(1000, 1000)</t>
+  </si>
+  <si>
+    <t>(800, 800)</t>
+  </si>
+  <si>
+    <t>(400, 400)</t>
   </si>
 </sst>
 </file>
@@ -131,10 +290,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,257 +575,1194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="A1:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="2">
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="2">
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="2">
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2100</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2300</v>
-      </c>
-      <c r="J5" s="2">
-        <v>300</v>
-      </c>
-      <c r="K5" s="2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2100</v>
-      </c>
-      <c r="I6" s="2">
-        <v>4200</v>
-      </c>
-      <c r="J6" s="2">
-        <v>300</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2100</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2300</v>
-      </c>
-      <c r="J7" s="2">
-        <v>700</v>
-      </c>
-      <c r="K7" s="2">
-        <v>900</v>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
